--- a/Annex Q/Q2_sample.xlsx
+++ b/Annex Q/Q2_sample.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10610"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/Desktop/SP_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adakwan/Dropbox/TB QUALITY INDIA 2014/-1000 - RESULTS DISSEMINATION/9999 SP Manual/99999 SP MANUAL/Release1.1/Annex Q/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074FF14-3113-D24B-B2C1-A3D68AA177F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="O2_sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2_sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">O2_sample!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Q2_sample!$A$1:$O$21</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,40 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>node6</author>
-  </authors>
-  <commentList>
-    <comment ref="E16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>node6:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-morning 8 to 10 and evening 4 to 6.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -148,8 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,19 +138,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -294,666 +248,666 @@
   </borders>
   <cellStyleXfs count="661">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1668,6 +1622,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1956,11 +1913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2614,6 +2571,5 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>